--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H2">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I2">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J2">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>4.571811036434888</v>
+        <v>9.08860678033</v>
       </c>
       <c r="R2">
-        <v>41.14629932791399</v>
+        <v>81.79746102297</v>
       </c>
       <c r="S2">
-        <v>0.0002546907011520247</v>
+        <v>0.0003831052707298881</v>
       </c>
       <c r="T2">
-        <v>0.0002766985245520506</v>
+        <v>0.0004221792194012206</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H3">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I3">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J3">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>837.3430108465619</v>
+        <v>1580.768003677204</v>
       </c>
       <c r="R3">
-        <v>7536.087097619056</v>
+        <v>14226.91203309484</v>
       </c>
       <c r="S3">
-        <v>0.04664748320472183</v>
+        <v>0.06663293600957299</v>
       </c>
       <c r="T3">
-        <v>0.05067829221259528</v>
+        <v>0.0734290104057771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H4">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I4">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J4">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>38.30905694902733</v>
+        <v>28.23518025561566</v>
       </c>
       <c r="R4">
-        <v>229.854341694164</v>
+        <v>169.411081533694</v>
       </c>
       <c r="S4">
-        <v>0.002134156573196674</v>
+        <v>0.001190176518511682</v>
       </c>
       <c r="T4">
-        <v>0.001545712694641072</v>
+        <v>0.0008743772394075535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H5">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I5">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J5">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>779.8887139771762</v>
+        <v>1292.736614818538</v>
       </c>
       <c r="R5">
-        <v>7018.998425794585</v>
+        <v>11634.62953336684</v>
       </c>
       <c r="S5">
-        <v>0.04344676580034035</v>
+        <v>0.05449176345425659</v>
       </c>
       <c r="T5">
-        <v>0.04720100081838852</v>
+        <v>0.06004952663555</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>172.32992</v>
       </c>
       <c r="I6">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J6">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>21.14386635224889</v>
+        <v>29.10738513760001</v>
       </c>
       <c r="R6">
-        <v>190.29479717024</v>
+        <v>261.9664662384</v>
       </c>
       <c r="S6">
-        <v>0.001177902171240727</v>
+        <v>0.001226941921121873</v>
       </c>
       <c r="T6">
-        <v>0.001279684697457495</v>
+        <v>0.0013520810651417</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>172.32992</v>
       </c>
       <c r="I7">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J7">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>3872.572285081921</v>
+        <v>5062.604666295929</v>
       </c>
       <c r="R7">
-        <v>34853.15056573728</v>
+        <v>45563.44199666336</v>
       </c>
       <c r="S7">
-        <v>0.215736858476666</v>
+        <v>0.2134002029306933</v>
       </c>
       <c r="T7">
-        <v>0.234378680344347</v>
+        <v>0.2351654701113814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>172.32992</v>
       </c>
       <c r="I8">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J8">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>177.1730226283734</v>
+        <v>90.42665019994666</v>
       </c>
       <c r="R8">
-        <v>1063.03813577024</v>
+        <v>542.55990119968</v>
       </c>
       <c r="S8">
-        <v>0.009870119521307258</v>
+        <v>0.003811687219324236</v>
       </c>
       <c r="T8">
-        <v>0.007148664363860302</v>
+        <v>0.002800301044827802</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>172.32992</v>
       </c>
       <c r="I9">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J9">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>3606.855709158863</v>
+        <v>4140.148588058311</v>
       </c>
       <c r="R9">
-        <v>32461.70138242976</v>
+        <v>37261.3372925248</v>
       </c>
       <c r="S9">
-        <v>0.2009340723400079</v>
+        <v>0.1745165990812569</v>
       </c>
       <c r="T9">
-        <v>0.2182967854626489</v>
+        <v>0.1923160217355184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H10">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I10">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J10">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>6.119650251957555</v>
+        <v>4.877777092100001</v>
       </c>
       <c r="R10">
-        <v>55.076852267618</v>
+        <v>43.8999938289</v>
       </c>
       <c r="S10">
-        <v>0.0003409191677116318</v>
+        <v>0.0002056093038894974</v>
       </c>
       <c r="T10">
-        <v>0.0003703779928777807</v>
+        <v>0.0002265799560844421</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H11">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I11">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J11">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>1120.835119051194</v>
+        <v>848.3845921191177</v>
       </c>
       <c r="R11">
-        <v>10087.51607146075</v>
+        <v>7635.461329072059</v>
       </c>
       <c r="S11">
-        <v>0.06244052522555027</v>
+        <v>0.03576132367727533</v>
       </c>
       <c r="T11">
-        <v>0.06783601098907849</v>
+        <v>0.03940871835582563</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H12">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I12">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J12">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>51.27902884481133</v>
+        <v>15.15357840546333</v>
       </c>
       <c r="R12">
-        <v>307.674173068868</v>
+        <v>90.92147043278</v>
       </c>
       <c r="S12">
-        <v>0.002856699830066545</v>
+        <v>0.0006387575013274836</v>
       </c>
       <c r="T12">
-        <v>0.0020690315076081</v>
+        <v>0.0004692707442758288</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H13">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I13">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J13">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>1043.929009084987</v>
+        <v>693.8006229434222</v>
       </c>
       <c r="R13">
-        <v>9395.361081764882</v>
+        <v>6244.2056064908</v>
       </c>
       <c r="S13">
-        <v>0.05815616812634649</v>
+        <v>0.02924526078744644</v>
       </c>
       <c r="T13">
-        <v>0.06318144259438795</v>
+        <v>0.03222806448709616</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H14">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I14">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J14">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>10.73737299534083</v>
+        <v>19.9129045650975</v>
       </c>
       <c r="R14">
-        <v>64.42423797204499</v>
+        <v>119.477427390585</v>
       </c>
       <c r="S14">
-        <v>0.0005981675609337317</v>
+        <v>0.00083937383130499</v>
       </c>
       <c r="T14">
-        <v>0.0004332368131138752</v>
+        <v>0.0006166559010634646</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H15">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I15">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J15">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>1966.587017890477</v>
+        <v>3463.422189736425</v>
       </c>
       <c r="R15">
-        <v>11799.52210734286</v>
+        <v>20780.53313841855</v>
       </c>
       <c r="S15">
-        <v>0.1095564585831124</v>
+        <v>0.1459910553642302</v>
       </c>
       <c r="T15">
-        <v>0.0793488214213746</v>
+        <v>0.1072540534804022</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H16">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I16">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J16">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>89.9727985875425</v>
+        <v>61.86255642891674</v>
       </c>
       <c r="R16">
-        <v>359.89119435017</v>
+        <v>247.450225715667</v>
       </c>
       <c r="S16">
-        <v>0.005012288341370397</v>
+        <v>0.002607646254433136</v>
       </c>
       <c r="T16">
-        <v>0.002420177855664664</v>
+        <v>0.001277158750733838</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H17">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I17">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J17">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>1831.649635143201</v>
+        <v>2832.352797394769</v>
       </c>
       <c r="R17">
-        <v>10989.89781085921</v>
+        <v>16994.11678436862</v>
       </c>
       <c r="S17">
-        <v>0.1020392413688326</v>
+        <v>0.1193900574064753</v>
       </c>
       <c r="T17">
-        <v>0.07390430145389985</v>
+        <v>0.08771131608135363</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H18">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I18">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J18">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N18">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O18">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P18">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q18">
-        <v>6.861317258731112</v>
+        <v>11.086320026815</v>
       </c>
       <c r="R18">
-        <v>61.75185532858</v>
+        <v>99.77688024133499</v>
       </c>
       <c r="S18">
-        <v>0.0003822366430996308</v>
+        <v>0.0004673133889413276</v>
       </c>
       <c r="T18">
-        <v>0.0004152657113000207</v>
+        <v>0.0005149759526490301</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H19">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I19">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J19">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N19">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O19">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P19">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q19">
-        <v>1256.67399768114</v>
+        <v>1928.227329060289</v>
       </c>
       <c r="R19">
-        <v>11310.06597913026</v>
+        <v>17354.0459615426</v>
       </c>
       <c r="S19">
-        <v>0.07000796381088265</v>
+        <v>0.08127913010024503</v>
       </c>
       <c r="T19">
-        <v>0.0760573519399987</v>
+        <v>0.08956900967182298</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H20">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I20">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J20">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N20">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O20">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P20">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q20">
-        <v>57.49375718184667</v>
+        <v>34.44138930138616</v>
       </c>
       <c r="R20">
-        <v>344.96254309108</v>
+        <v>206.648335808317</v>
       </c>
       <c r="S20">
-        <v>0.003202915696167429</v>
+        <v>0.001451782224881549</v>
       </c>
       <c r="T20">
-        <v>0.002319786426923466</v>
+        <v>0.001066568962056383</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H21">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I21">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J21">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N21">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O21">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P21">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q21">
-        <v>1170.447302055158</v>
+        <v>1576.885453255291</v>
       </c>
       <c r="R21">
-        <v>10534.02571849642</v>
+        <v>14191.96907929762</v>
       </c>
       <c r="S21">
-        <v>0.06520436685729356</v>
+        <v>0.0664692777540823</v>
       </c>
       <c r="T21">
-        <v>0.07083867617528179</v>
+        <v>0.07324866019963147</v>
       </c>
     </row>
   </sheetData>
